--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-procedure-codes-nurse-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-procedure-codes-nurse-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T11:05:16+00:00</t>
+    <t>2022-09-01T00:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処置のコード:看護実践用語標準マスター(看護行為)</t>
+    <t>処置のコード:看護実践用語標準マスター(看護行為)の値セット</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-procedure-codes-nurse-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/ValueSet-jp-procedure-codes-nurse-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:31:30+00:00</t>
+    <t>2022-09-02T09:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
